--- a/WebApplication3/wwwroot/Formatos/ComfasubEvaluacionAlistamientoEntrenamientoComfasub.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComfasubEvaluacionAlistamientoEntrenamientoComfasub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIESMAR\siesmar\WebApplication3\wwwroot\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01630E0-BB9C-45CD-A14D-D226CD636052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA96F7D9-0D4F-42A8-B5B5-81FCDDE31CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{7E4F51E1-F9AE-4F7E-9270-78762A84B6D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>UNIDAD</t>
   </si>
@@ -72,7 +72,37 @@
     <t>FM52</t>
   </si>
   <si>
-    <t>Death burpie</t>
+    <t>S-001-C</t>
+  </si>
+  <si>
+    <t>S-003-C</t>
+  </si>
+  <si>
+    <t>S-005-C</t>
+  </si>
+  <si>
+    <t>S-016-C</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO DE SEÑALES POR SEMAFORO EN PUERTO</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO DE SEÑALES POR DESTELLOS EN PUERTO</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO DE SEÑALES POR BANDERA EN PUERTO</t>
+  </si>
+  <si>
+    <t>PROCED. DE COMUNICACIONES POR DATA "SISTEMA WARI EN PUERTO</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -450,7 +480,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,8 +544,8 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -523,11 +553,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3">
         <v>10</v>
@@ -542,21 +572,21 @@
         <v>45142</v>
       </c>
       <c r="K2" s="3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L2" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>5</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -564,11 +594,11 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>10</v>
@@ -583,21 +613,21 @@
         <v>45143</v>
       </c>
       <c r="K3" s="3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M3" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
-        <v>5</v>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -605,11 +635,11 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
@@ -624,21 +654,21 @@
         <v>45144</v>
       </c>
       <c r="K4" s="3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L4" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M4" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -646,11 +676,11 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
@@ -665,13 +695,13 @@
         <v>45145</v>
       </c>
       <c r="K5" s="3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M5" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
